--- a/Mifos Automation Excels/Loan Product/Productloannavigation.xlsx
+++ b/Mifos Automation Excels/Loan Product/Productloannavigation.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
   </bookViews>
   <sheets>
-    <sheet name="setup" sheetId="7" r:id="rId1"/>
+    <sheet name="Setup" sheetId="7" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -19,19 +19,19 @@
     <t>NavigateURL</t>
   </si>
   <si>
-    <t>click</t>
-  </si>
-  <si>
     <t>createloanproduct</t>
   </si>
   <si>
-    <t>createclick</t>
-  </si>
-  <si>
     <t>loanproducts</t>
   </si>
   <si>
     <t>products</t>
+  </si>
+  <si>
+    <t>clickonLoanproduct</t>
+  </si>
+  <si>
+    <t>createLoanproduct</t>
   </si>
 </sst>
 </file>
@@ -377,12 +377,12 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -391,23 +391,23 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
